--- a/Rueda De La Vida.xlsx
+++ b/Rueda De La Vida.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/930fc53066476bca/Escritorio/trabajos_Sena/DataScienceWorks/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/930fc53066476bca/Escritorio/trabajos_Sena/DataScienceRepos/DataScienceRepository/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{34740DB1-F303-453E-AAAF-7AEBD89286C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{69B38F4E-7521-434C-8DFA-E07F1A19484C}"/>
+  <xr:revisionPtr revIDLastSave="119" documentId="8_{34740DB1-F303-453E-AAAF-7AEBD89286C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BF42A2CE-F610-4243-B40E-3A1BB08C365F}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{0B14C3D8-474E-401E-B771-2713E59B889F}"/>
   </bookViews>
@@ -126,7 +126,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -141,8 +141,32 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -161,8 +185,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="13">
+  <borders count="27">
     <border>
       <left/>
       <right/>
@@ -276,73 +306,240 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color theme="4" tint="-0.249977111117893"/>
       </left>
-      <right/>
-      <top style="double">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
+      <right style="double">
+        <color theme="4"/>
+      </right>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color theme="4"/>
+      <left/>
+      <right/>
+      <top style="double">
+        <color theme="4" tint="-0.249977111117893"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color theme="4" tint="-0.249977111117893"/>
       </left>
       <right style="double">
-        <color theme="4"/>
+        <color theme="4" tint="-0.249977111117893"/>
       </right>
       <top style="double">
-        <color theme="4"/>
+        <color theme="4" tint="-0.249977111117893"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color theme="4" tint="-0.249977111117893"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
-      <right style="thin">
-        <color theme="4"/>
+      <right style="double">
+        <color theme="4"/>
+      </right>
+      <top style="double">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="double">
+        <color theme="4" tint="-0.249977111117893"/>
+      </right>
+      <top style="double">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color theme="4" tint="-0.249977111117893"/>
+      </left>
+      <right style="double">
+        <color theme="4"/>
+      </right>
+      <top style="double">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color theme="4" tint="-0.249977111117893"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color theme="4" tint="-0.249977111117893"/>
+      </left>
+      <right/>
+      <top style="double">
+        <color theme="4" tint="-0.249977111117893"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="double">
+        <color theme="4" tint="-0.249977111117893"/>
+      </right>
+      <top style="double">
+        <color theme="4" tint="-0.249977111117893"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="double">
+        <color theme="4" tint="-0.249977111117893"/>
+      </right>
+      <top style="double">
+        <color theme="4" tint="-0.249977111117893"/>
+      </top>
+      <bottom style="double">
+        <color theme="4" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="double">
+        <color theme="4" tint="-0.249977111117893"/>
+      </top>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color theme="4" tint="-0.249977111117893"/>
+      </left>
+      <right style="double">
+        <color theme="4" tint="-0.249977111117893"/>
       </right>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color theme="4" tint="-0.249977111117893"/>
+      </left>
+      <right style="double">
+        <color theme="4" tint="-0.249977111117893"/>
+      </right>
+      <top style="double">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color theme="4" tint="-0.249977111117893"/>
+      </left>
+      <right style="double">
+        <color theme="4" tint="-0.249977111117893"/>
+      </right>
+      <top style="double">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="double">
+        <color theme="4" tint="-0.249977111117893"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color theme="4" tint="-0.249977111117893"/>
+      </left>
+      <right/>
+      <top style="double">
+        <color theme="4" tint="-0.249977111117893"/>
+      </top>
+      <bottom style="double">
+        <color theme="4" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="double">
+        <color theme="4" tint="-0.249977111117893"/>
+      </top>
+      <bottom style="double">
+        <color theme="4" tint="-0.249977111117893"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -351,25 +548,67 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -408,19 +647,43 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="50" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="lt1">
-                    <a:lumMod val="85000"/>
-                  </a:schemeClr>
-                </a:solidFill>
+              <a:defRPr sz="1800" b="1" i="0" u="sng" strike="noStrike" kern="1200" cap="none" spc="50" baseline="0">
+                <a:gradFill flip="none" rotWithShape="1">
+                  <a:gsLst>
+                    <a:gs pos="100000">
+                      <a:schemeClr val="bg2"/>
+                    </a:gs>
+                    <a:gs pos="0">
+                      <a:schemeClr val="bg2">
+                        <a:lumMod val="50000"/>
+                      </a:schemeClr>
+                    </a:gs>
+                  </a:gsLst>
+                  <a:lin ang="5400000" scaled="1"/>
+                  <a:tileRect/>
+                </a:gradFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="es-CO"/>
+              <a:rPr lang="es-CO" sz="1800" b="1" i="0" u="sng">
+                <a:gradFill flip="none" rotWithShape="1">
+                  <a:gsLst>
+                    <a:gs pos="100000">
+                      <a:schemeClr val="bg2"/>
+                    </a:gs>
+                    <a:gs pos="0">
+                      <a:schemeClr val="bg2">
+                        <a:lumMod val="50000"/>
+                      </a:schemeClr>
+                    </a:gs>
+                  </a:gsLst>
+                  <a:lin ang="5400000" scaled="1"/>
+                  <a:tileRect/>
+                </a:gradFill>
+              </a:rPr>
               <a:t>Rueda de la Vida</a:t>
             </a:r>
           </a:p>
@@ -439,12 +702,21 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="50" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="lt1">
-                  <a:lumMod val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
+            <a:defRPr sz="1800" b="1" i="0" u="sng" strike="noStrike" kern="1200" cap="none" spc="50" baseline="0">
+              <a:gradFill flip="none" rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="bg2"/>
+                  </a:gs>
+                  <a:gs pos="0">
+                    <a:schemeClr val="bg2">
+                      <a:lumMod val="50000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="1"/>
+                <a:tileRect/>
+              </a:gradFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
@@ -470,12 +742,17 @@
               </a:solidFill>
             </a:ln>
             <a:effectLst>
-              <a:glow rad="76200">
-                <a:schemeClr val="accent4">
+              <a:glow rad="63500">
+                <a:schemeClr val="accent1">
                   <a:satMod val="175000"/>
-                  <a:alpha val="34000"/>
+                  <a:alpha val="40000"/>
                 </a:schemeClr>
               </a:glow>
+              <a:outerShdw blurRad="50800" dist="50800" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="90000"/>
+                </a:srgbClr>
+              </a:outerShdw>
             </a:effectLst>
           </c:spPr>
           <c:marker>
@@ -493,17 +770,22 @@
               </a:ln>
               <a:effectLst>
                 <a:glow rad="63500">
-                  <a:schemeClr val="accent4">
+                  <a:schemeClr val="accent1">
                     <a:satMod val="175000"/>
-                    <a:alpha val="25000"/>
+                    <a:alpha val="40000"/>
                   </a:schemeClr>
                 </a:glow>
+                <a:outerShdw blurRad="50800" dist="50800" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="90000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
               </a:effectLst>
             </c:spPr>
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Hoja1!$A$17:$A$24</c:f>
+              <c:f>Hoja1!$A$7:$A$14</c:f>
               <c:strCache>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
@@ -535,7 +817,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Hoja1!$E$17:$E$24</c:f>
+              <c:f>Hoja1!$E$7:$E$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -631,7 +913,7 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Hoja1!$A$17:$A$24</c15:sqref>
+                          <c15:sqref>Hoja1!$A$7:$A$14</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -669,7 +951,7 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Hoja1!$B$17:$B$24</c15:sqref>
+                          <c15:sqref>Hoja1!$B$7:$B$14</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -730,10 +1012,10 @@
                 </c:marker>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Hoja1!$A$17:$A$24</c15:sqref>
+                          <c15:sqref>Hoja1!$A$7:$A$14</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -768,10 +1050,10 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Hoja1!$C$17:$C$24</c15:sqref>
+                          <c15:sqref>Hoja1!$C$7:$C$14</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -781,7 +1063,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000001-CD3F-4A84-AA1E-CF962C91D217}"/>
                   </c:ext>
@@ -832,10 +1114,10 @@
                 </c:marker>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Hoja1!$A$17:$A$24</c15:sqref>
+                          <c15:sqref>Hoja1!$A$7:$A$14</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -870,10 +1152,10 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Hoja1!$D$17:$D$24</c15:sqref>
+                          <c15:sqref>Hoja1!$D$7:$D$14</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -883,7 +1165,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000002-CD3F-4A84-AA1E-CF962C91D217}"/>
                   </c:ext>
@@ -929,12 +1211,24 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="lt1">
-                    <a:lumMod val="75000"/>
-                  </a:schemeClr>
-                </a:solidFill>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:gradFill>
+                  <a:gsLst>
+                    <a:gs pos="100000">
+                      <a:schemeClr val="tx2">
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
+                      </a:schemeClr>
+                    </a:gs>
+                    <a:gs pos="0">
+                      <a:schemeClr val="accent1">
+                        <a:lumMod val="5000"/>
+                        <a:lumOff val="95000"/>
+                      </a:schemeClr>
+                    </a:gs>
+                  </a:gsLst>
+                  <a:lin ang="5400000" scaled="1"/>
+                </a:gradFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
@@ -954,6 +1248,8 @@
         <c:axId val="19338463"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="10"/>
+          <c:min val="1"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -986,7 +1282,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="lt1">
                     <a:lumMod val="75000"/>
@@ -1017,12 +1313,28 @@
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="dk1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </a:solidFill>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="100000">
+          <a:schemeClr val="tx1"/>
+        </a:gs>
+        <a:gs pos="1000">
+          <a:schemeClr val="bg2">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="0">
+          <a:schemeClr val="tx1">
+            <a:lumMod val="95000"/>
+            <a:lumOff val="5000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
         <a:schemeClr val="dk1">
@@ -1650,15 +1962,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>708503</xdr:colOff>
+      <xdr:colOff>9096</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>168054</xdr:rowOff>
+      <xdr:rowOff>2047</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>417534</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>104382</xdr:rowOff>
+      <xdr:colOff>723900</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2003,10 +2315,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A291458C-15C8-4C93-96D6-6D3CF5A047FC}">
-  <dimension ref="A1:W25"/>
+  <dimension ref="A1:AA25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="AA7" sqref="AA7:AA8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2015,447 +2327,462 @@
     <col min="5" max="5" width="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:27" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E1" s="1"/>
     </row>
-    <row r="2" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:27" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="5"/>
-      <c r="G2" s="3" t="s">
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="8"/>
+      <c r="G2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="5"/>
-      <c r="M2" s="3" t="s">
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="8"/>
+      <c r="M2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="N2" s="4"/>
-      <c r="O2" s="4"/>
-      <c r="P2" s="4"/>
-      <c r="Q2" s="5"/>
-      <c r="S2" s="3" t="s">
+      <c r="N2" s="7"/>
+      <c r="O2" s="7"/>
+      <c r="P2" s="7"/>
+      <c r="Q2" s="8"/>
+      <c r="S2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="T2" s="4"/>
-      <c r="U2" s="4"/>
-      <c r="V2" s="4"/>
-      <c r="W2" s="5"/>
+      <c r="T2" s="7"/>
+      <c r="U2" s="7"/>
+      <c r="V2" s="7"/>
+      <c r="W2" s="8"/>
     </row>
-    <row r="3" spans="1:23" ht="38.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
+    <row r="3" spans="1:27" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="12">
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="2">
         <v>3</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="G3" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="12">
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="14"/>
+      <c r="K3" s="2">
         <v>3</v>
       </c>
-      <c r="M3" s="6" t="s">
+      <c r="M3" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="N3" s="7"/>
-      <c r="O3" s="7"/>
-      <c r="P3" s="7"/>
-      <c r="Q3" s="12">
+      <c r="N3" s="14"/>
+      <c r="O3" s="14"/>
+      <c r="P3" s="14"/>
+      <c r="Q3" s="2">
         <v>8</v>
       </c>
-      <c r="S3" s="6" t="s">
+      <c r="S3" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="T3" s="7"/>
-      <c r="U3" s="7"/>
-      <c r="V3" s="7"/>
-      <c r="W3" s="12">
+      <c r="T3" s="14"/>
+      <c r="U3" s="14"/>
+      <c r="V3" s="14"/>
+      <c r="W3" s="2">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:23" ht="38.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="8" t="s">
+    <row r="4" spans="1:27" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="13">
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="3">
         <v>3</v>
       </c>
-      <c r="G4" s="8" t="s">
+      <c r="G4" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="13">
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="3">
         <v>3</v>
       </c>
-      <c r="M4" s="8" t="s">
+      <c r="M4" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="N4" s="9"/>
-      <c r="O4" s="9"/>
-      <c r="P4" s="9"/>
-      <c r="Q4" s="13">
+      <c r="N4" s="10"/>
+      <c r="O4" s="10"/>
+      <c r="P4" s="10"/>
+      <c r="Q4" s="3">
         <v>3</v>
       </c>
-      <c r="S4" s="8" t="s">
+      <c r="S4" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="T4" s="9"/>
-      <c r="U4" s="9"/>
-      <c r="V4" s="9"/>
-      <c r="W4" s="13">
+      <c r="T4" s="10"/>
+      <c r="U4" s="10"/>
+      <c r="V4" s="10"/>
+      <c r="W4" s="3">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:23" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="10" t="s">
+    <row r="5" spans="1:27" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="11"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="H5" s="11"/>
-      <c r="I5" s="11"/>
-      <c r="J5" s="11"/>
-      <c r="K5" s="17"/>
-      <c r="M5" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="N5" s="11"/>
-      <c r="O5" s="11"/>
-      <c r="P5" s="11"/>
-      <c r="R5" s="15"/>
-      <c r="S5" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="T5" s="11"/>
-      <c r="U5" s="11"/>
-      <c r="V5" s="11"/>
-    </row>
-    <row r="6" spans="1:23" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E6" s="1"/>
-      <c r="I6" s="16"/>
-    </row>
-    <row r="7" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="5"/>
-      <c r="I7" s="19">
-        <v>1</v>
-      </c>
-      <c r="S7" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="T7" s="4"/>
-      <c r="U7" s="4"/>
-      <c r="V7" s="4"/>
-      <c r="W7" s="5"/>
-    </row>
-    <row r="8" spans="1:23" ht="38.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="12">
-        <v>4</v>
-      </c>
-      <c r="I8" s="19">
-        <v>2</v>
-      </c>
-      <c r="S8" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="T8" s="7"/>
-      <c r="U8" s="7"/>
-      <c r="V8" s="7"/>
-      <c r="W8" s="12">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:23" ht="38.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="13">
-        <v>3</v>
-      </c>
-      <c r="I9" s="19">
-        <v>3</v>
-      </c>
-      <c r="S9" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="T9" s="9"/>
-      <c r="U9" s="9"/>
-      <c r="V9" s="9"/>
-      <c r="W9" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:23" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="B10" s="11"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-      <c r="I10" s="19">
-        <v>4</v>
-      </c>
-      <c r="S10" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="T10" s="11"/>
-      <c r="U10" s="11"/>
-      <c r="V10" s="11"/>
-    </row>
-    <row r="11" spans="1:23" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I11" s="19">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="5"/>
-      <c r="I12" s="19">
-        <v>6</v>
-      </c>
-      <c r="S12" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="T12" s="4"/>
-      <c r="U12" s="4"/>
-      <c r="V12" s="4"/>
-      <c r="W12" s="5"/>
-    </row>
-    <row r="13" spans="1:23" ht="38.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="B13" s="9"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="12">
-        <v>3</v>
-      </c>
-      <c r="I13" s="19">
-        <v>7</v>
-      </c>
-      <c r="L13" s="18"/>
-      <c r="S13" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="T13" s="7"/>
-      <c r="U13" s="7"/>
-      <c r="V13" s="7"/>
-      <c r="W13" s="12">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" spans="1:23" ht="38.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B14" s="9"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="13">
-        <v>3</v>
-      </c>
-      <c r="I14" s="19">
-        <v>8</v>
-      </c>
-      <c r="S14" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="T14" s="9"/>
-      <c r="U14" s="9"/>
-      <c r="V14" s="9"/>
-      <c r="W14" s="13">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:23" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="B15" s="11"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
-      <c r="I15" s="19">
-        <v>9</v>
-      </c>
-      <c r="S15" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="T15" s="11"/>
-      <c r="U15" s="11"/>
-      <c r="V15" s="11"/>
-    </row>
-    <row r="16" spans="1:23" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="I16" s="19">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17">
+      <c r="B5" s="12"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="20">
         <f>AVERAGE(E3:E4)</f>
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18">
+      <c r="F5" s="4"/>
+      <c r="G5" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="19"/>
+      <c r="K5" s="18">
         <f>AVERAGE(K3:K4)</f>
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="20"/>
-      <c r="E19" s="14">
+      <c r="M5" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="N5" s="12"/>
+      <c r="O5" s="12"/>
+      <c r="P5" s="12"/>
+      <c r="Q5" s="17">
         <f>AVERAGE(Q3:Q4)</f>
         <v>5.5</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="20"/>
-      <c r="E20" s="14">
+      <c r="R5" s="15"/>
+      <c r="S5" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="T5" s="12"/>
+      <c r="U5" s="12"/>
+      <c r="V5" s="12"/>
+      <c r="W5" s="17">
         <f>AVERAGE(W3:W4)</f>
         <v>5.5</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="20"/>
-      <c r="E21" s="14">
-        <f>AVERAGE(E8:E9)</f>
-        <v>3.5</v>
-      </c>
+    <row r="6" spans="1:27" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E6" s="1"/>
+      <c r="Q6" s="16"/>
     </row>
-    <row r="22" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="20"/>
-      <c r="E22" s="14">
-        <f>AVERAGE(E13:E14)</f>
+    <row r="7" spans="1:27" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="25"/>
+      <c r="C7" s="25"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="33">
+        <f>AVERAGE(E3:E4)</f>
         <v>3</v>
       </c>
+      <c r="I7" s="5">
+        <v>1</v>
+      </c>
+      <c r="S7" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="T7" s="7"/>
+      <c r="U7" s="7"/>
+      <c r="V7" s="7"/>
+      <c r="W7" s="8"/>
+      <c r="AA7" s="37"/>
     </row>
-    <row r="23" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="20"/>
-      <c r="E23" s="14">
+    <row r="8" spans="1:27" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="25"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="26"/>
+      <c r="E8" s="34">
+        <f>AVERAGE(K3:K4)</f>
+        <v>3</v>
+      </c>
+      <c r="I8" s="5">
+        <v>2</v>
+      </c>
+      <c r="S8" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="T8" s="14"/>
+      <c r="U8" s="14"/>
+      <c r="V8" s="14"/>
+      <c r="W8" s="2">
+        <v>4</v>
+      </c>
+      <c r="AA8" s="37"/>
+    </row>
+    <row r="9" spans="1:27" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="28"/>
+      <c r="C9" s="28"/>
+      <c r="D9" s="29"/>
+      <c r="E9" s="35">
+        <f>AVERAGE(Q3:Q4)</f>
+        <v>5.5</v>
+      </c>
+      <c r="I9" s="5">
+        <v>3</v>
+      </c>
+      <c r="S9" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="T9" s="10"/>
+      <c r="U9" s="10"/>
+      <c r="V9" s="10"/>
+      <c r="W9" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="31"/>
+      <c r="C10" s="31"/>
+      <c r="D10" s="32"/>
+      <c r="E10" s="35">
+        <f>AVERAGE(W3:W4)</f>
+        <v>5.5</v>
+      </c>
+      <c r="F10" s="21"/>
+      <c r="I10" s="5">
+        <v>4</v>
+      </c>
+      <c r="S10" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="T10" s="12"/>
+      <c r="U10" s="12"/>
+      <c r="V10" s="12"/>
+      <c r="W10" s="22">
         <f>AVERAGE(W8:W9)</f>
         <v>2.5</v>
       </c>
+      <c r="X10" s="21"/>
     </row>
-    <row r="24" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="2" t="s">
+    <row r="11" spans="1:27" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="28"/>
+      <c r="C11" s="28"/>
+      <c r="D11" s="29"/>
+      <c r="E11" s="35">
+        <f>AVERAGE(W18:W19)</f>
+        <v>3.5</v>
+      </c>
+      <c r="I11" s="5">
+        <v>5</v>
+      </c>
+      <c r="W11" s="23"/>
+    </row>
+    <row r="12" spans="1:27" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" s="31"/>
+      <c r="C12" s="31"/>
+      <c r="D12" s="32"/>
+      <c r="E12" s="35">
+        <f>AVERAGE(E18:E19)</f>
+        <v>3</v>
+      </c>
+      <c r="I12" s="5">
+        <v>6</v>
+      </c>
+      <c r="S12" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="T12" s="7"/>
+      <c r="U12" s="7"/>
+      <c r="V12" s="7"/>
+      <c r="W12" s="8"/>
+    </row>
+    <row r="13" spans="1:27" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" s="25"/>
+      <c r="C13" s="25"/>
+      <c r="D13" s="26"/>
+      <c r="E13" s="35">
+        <f>AVERAGE(W8:W9)</f>
+        <v>2.5</v>
+      </c>
+      <c r="I13" s="5">
+        <v>7</v>
+      </c>
+      <c r="S13" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="T13" s="14"/>
+      <c r="U13" s="14"/>
+      <c r="V13" s="14"/>
+      <c r="W13" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="20"/>
-      <c r="E24" s="14">
+      <c r="B14" s="28"/>
+      <c r="C14" s="28"/>
+      <c r="D14" s="29"/>
+      <c r="E14" s="36">
         <f>AVERAGE(W13:W14)</f>
         <v>6.5</v>
       </c>
+      <c r="I14" s="5">
+        <v>8</v>
+      </c>
+      <c r="S14" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="T14" s="10"/>
+      <c r="U14" s="10"/>
+      <c r="V14" s="10"/>
+      <c r="W14" s="3">
+        <v>4</v>
+      </c>
     </row>
-    <row r="25" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:27" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I15" s="5">
+        <v>9</v>
+      </c>
+      <c r="S15" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="T15" s="12"/>
+      <c r="U15" s="12"/>
+      <c r="V15" s="12"/>
+      <c r="W15" s="17">
+        <f>AVERAGE(W13:W14)</f>
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I16" s="5">
+        <v>10</v>
+      </c>
+      <c r="W16" s="16"/>
+    </row>
+    <row r="17" spans="1:23" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="8"/>
+      <c r="S17" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="T17" s="7"/>
+      <c r="U17" s="7"/>
+      <c r="V17" s="7"/>
+      <c r="W17" s="8"/>
+    </row>
+    <row r="18" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" s="10"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="2">
+        <v>3</v>
+      </c>
+      <c r="S18" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="T18" s="14"/>
+      <c r="U18" s="14"/>
+      <c r="V18" s="14"/>
+      <c r="W18" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" s="10"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="3">
+        <v>3</v>
+      </c>
+      <c r="S19" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="T19" s="10"/>
+      <c r="U19" s="10"/>
+      <c r="V19" s="10"/>
+      <c r="W19" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B20" s="12"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="17">
+        <f>AVERAGE(E18:E19)</f>
+        <v>3</v>
+      </c>
+      <c r="S20" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="T20" s="12"/>
+      <c r="U20" s="12"/>
+      <c r="V20" s="12"/>
+      <c r="W20" s="17">
+        <f>AVERAGE(W18:W19)</f>
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="22" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="23" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="24" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="25" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="A23:D23"/>
-    <mergeCell ref="A24:D24"/>
-    <mergeCell ref="A17:D17"/>
-    <mergeCell ref="A18:D18"/>
-    <mergeCell ref="A19:D19"/>
-    <mergeCell ref="A20:D20"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="A22:D22"/>
-    <mergeCell ref="A12:E12"/>
-    <mergeCell ref="A13:D13"/>
-    <mergeCell ref="A14:D14"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="S12:W12"/>
-    <mergeCell ref="S13:V13"/>
-    <mergeCell ref="S14:V14"/>
-    <mergeCell ref="S15:V15"/>
-    <mergeCell ref="A7:E7"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="S7:W7"/>
-    <mergeCell ref="S8:V8"/>
-    <mergeCell ref="S9:V9"/>
-    <mergeCell ref="S10:V10"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="G2:K2"/>
+    <mergeCell ref="G3:J3"/>
+    <mergeCell ref="G4:J4"/>
+    <mergeCell ref="G5:J5"/>
     <mergeCell ref="M2:Q2"/>
     <mergeCell ref="M3:P3"/>
     <mergeCell ref="M4:P4"/>
@@ -2464,17 +2791,33 @@
     <mergeCell ref="S3:V3"/>
     <mergeCell ref="S4:V4"/>
     <mergeCell ref="S5:V5"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="G2:K2"/>
-    <mergeCell ref="G3:J3"/>
-    <mergeCell ref="G4:J4"/>
-    <mergeCell ref="G5:J5"/>
+    <mergeCell ref="S17:W17"/>
+    <mergeCell ref="S18:V18"/>
+    <mergeCell ref="S19:V19"/>
+    <mergeCell ref="S20:V20"/>
+    <mergeCell ref="S7:W7"/>
+    <mergeCell ref="S8:V8"/>
+    <mergeCell ref="S9:V9"/>
+    <mergeCell ref="S10:V10"/>
+    <mergeCell ref="A17:E17"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="S12:W12"/>
+    <mergeCell ref="S13:V13"/>
+    <mergeCell ref="S14:V14"/>
+    <mergeCell ref="S15:V15"/>
+    <mergeCell ref="A13:D13"/>
+    <mergeCell ref="A14:D14"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="A12:D12"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E4 K3:K4 Q3 Q4 W3 W4 W8:W9 W13:W14 E8:E9 E13:E14" xr:uid="{F21E09E6-96C0-4377-B5F7-9C11DB882FAC}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E4 K3:K4 Q3 Q4 W3 W4 W8:W9 W13:W14 W18:W19 E18:E19" xr:uid="{F21E09E6-96C0-4377-B5F7-9C11DB882FAC}">
       <formula1>$I$7:$I$16</formula1>
     </dataValidation>
   </dataValidations>
